--- a/m1/u1/ejercicios/20191028/Funciones lógicas/función si.xlsx
+++ b/m1/u1/ejercicios/20191028/Funciones lógicas/función si.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Google Drive\Cursos\Excel\2016\Funciones lógicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191028\Funciones lógicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Ejercicio" sheetId="1" r:id="rId1"/>
     <sheet name="Solución" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -91,11 +91,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -115,6 +116,10 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -263,13 +268,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -335,9 +340,14 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -639,31 +649,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -683,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -693,12 +708,21 @@
       <c r="C9" s="1">
         <v>36568</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9">
+      <c r="D9" s="25">
+        <f>C9-B9</f>
+        <v>10</v>
+      </c>
+      <c r="E9" s="24">
         <v>345670</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="23">
+        <f>E9-E9*IF(D9&lt;10,10%,IF(D9 &lt;15,5%,0))</f>
+        <v>328386.5</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="26"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -708,12 +732,20 @@
       <c r="C10" s="1">
         <v>36605</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10">
+      <c r="D10" s="25">
+        <f t="shared" ref="D10:D20" si="0">C10-B10</f>
+        <v>15</v>
+      </c>
+      <c r="E10" s="24">
         <v>23454</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="23">
+        <f t="shared" ref="F10:F20" si="1">E10-E10*IF(D10&lt;10,10%,IF(D10 &lt;15,5%,0))</f>
+        <v>23454</v>
+      </c>
+      <c r="I10" s="26"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -723,12 +755,20 @@
       <c r="C11" s="1">
         <v>36626</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11">
+      <c r="D11" s="25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="24">
         <v>34500</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="23">
+        <f t="shared" si="1"/>
+        <v>31050</v>
+      </c>
+      <c r="I11" s="26"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -738,12 +778,20 @@
       <c r="C12" s="1">
         <v>36644</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12">
+      <c r="D12" s="25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="24">
         <v>900876</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="23">
+        <f t="shared" si="1"/>
+        <v>810788.4</v>
+      </c>
+      <c r="I12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -753,12 +801,20 @@
       <c r="C13" s="1">
         <v>36671</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13">
+      <c r="D13" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E13" s="24">
         <v>980700</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="23">
+        <f t="shared" si="1"/>
+        <v>980700</v>
+      </c>
+      <c r="I13" s="26"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -768,12 +824,20 @@
       <c r="C14" s="1">
         <v>36668</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14">
+      <c r="D14" s="25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="24">
         <v>234500</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="23">
+        <f t="shared" si="1"/>
+        <v>211050</v>
+      </c>
+      <c r="I14" s="26"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -783,12 +847,20 @@
       <c r="C15" s="1">
         <v>36692</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15">
+      <c r="D15" s="25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="24">
         <v>23000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="23">
+        <f t="shared" si="1"/>
+        <v>23000</v>
+      </c>
+      <c r="I15" s="26"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -798,12 +870,20 @@
       <c r="C16" s="1">
         <v>36692</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16">
+      <c r="D16" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E16" s="24">
         <v>24500</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="23">
+        <f t="shared" si="1"/>
+        <v>22050</v>
+      </c>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -813,12 +893,20 @@
       <c r="C17" s="1">
         <v>36715</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17">
+      <c r="D17" s="25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E17" s="24">
         <v>65789</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="23">
+        <f t="shared" si="1"/>
+        <v>65789</v>
+      </c>
+      <c r="I17" s="26"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -828,12 +916,20 @@
       <c r="C18" s="1">
         <v>36719</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18">
+      <c r="D18" s="25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E18" s="24">
         <v>12000</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="23">
+        <f t="shared" si="1"/>
+        <v>10800</v>
+      </c>
+      <c r="I18" s="26"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -843,12 +939,20 @@
       <c r="C19" s="1">
         <v>36789</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19">
+      <c r="D19" s="25">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E19" s="24">
         <v>225000</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="23">
+        <f t="shared" si="1"/>
+        <v>225000</v>
+      </c>
+      <c r="I19" s="26"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -858,10 +962,18 @@
       <c r="C20" s="1">
         <v>36783</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20">
+      <c r="D20" s="25">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E20" s="24">
         <v>60700</v>
       </c>
+      <c r="F20" s="23">
+        <f t="shared" si="1"/>
+        <v>57665</v>
+      </c>
+      <c r="I20" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -875,316 +987,316 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="11.5703125" style="4"/>
+    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" s="8" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>36558</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>36568</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>C9-B9</f>
         <v>10</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>345670</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="12">
         <f>IF(D9&lt;10,E9-(E9*10%),IF(D9&lt;15,E9-(E9*5%),E9))</f>
         <v>328386.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>36590</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>36605</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <f t="shared" ref="D10:D20" si="0">C10-B10</f>
         <v>15</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>23454</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="17">
         <f t="shared" ref="F10:F20" si="1">IF(D10&lt;10,E10-(E10*10%),IF(D10&lt;15,E10-(E10*5%),E10))</f>
         <v>23454</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>36623</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>36626</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>34500</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="12">
         <f t="shared" si="1"/>
         <v>31050</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>36641</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>36644</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>900876</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <f t="shared" si="1"/>
         <v>810788.4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>36649</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>36671</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>980700</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <f t="shared" si="1"/>
         <v>980700</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>36661</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>36668</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="16">
         <v>234500</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="17">
         <f t="shared" si="1"/>
         <v>211050</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>36671</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>36692</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>23000</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f t="shared" si="1"/>
         <v>23000</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>36684</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>36692</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>24500</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="17">
         <f t="shared" si="1"/>
         <v>22050</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>36685</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>36715</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>65789</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
         <f t="shared" si="1"/>
         <v>65789</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>36717</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>36719</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>12000</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <f t="shared" si="1"/>
         <v>10800</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>36727</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>36789</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>225000</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <f t="shared" si="1"/>
         <v>225000</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="20">
+      <c r="B20" s="19">
         <v>36772</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>36783</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <v>60700</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="22">
         <f t="shared" si="1"/>
         <v>57665</v>
       </c>
